--- a/original_files/Lista_proteómica_Olineu.xlsx
+++ b/original_files/Lista_proteómica_Olineu.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e771c42a765a3e1/Escritorio/TAF1_genetics/original_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_E3E8B3557011449173442D236DCC423116F41080" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA2E8F9A-DA7B-411B-9167-3E19D8383666}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_E3E8B3557011449173442D236DCC423116F41080" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{984A661A-D070-455F-A14C-073A7A49E293}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WT&gt;D38" sheetId="1" r:id="rId1"/>
     <sheet name="D38&gt;WT" sheetId="2" r:id="rId2"/>
-    <sheet name="geneset_input" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -577,6 +587,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -844,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection sqref="A1:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1462,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1546,18 +1560,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F383BF4-E901-4209-9DA2-E073B175ED39}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>